--- a/app/postgres_data/daily/real_generation/archiv/13_12_2022_real_gen.xlsx
+++ b/app/postgres_data/daily/real_generation/archiv/13_12_2022_real_gen.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8073" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7940" uniqueCount="138">
   <si>
     <t>Datenkategorie: Realisierte Erzeugung</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Zeitraum: 28.11.2022, 00:00 - 15.12.2022, 23:59</t>
   </si>
   <si>
-    <t>Stand: 13.12.2022, 13:18</t>
+    <t>Stand: 13.12.2022, 16:13</t>
   </si>
   <si>
     <t>(c) Bundesnetzagentur | SMARD.de</t>
@@ -50208,7 +50208,7 @@
         <v>25</v>
       </c>
       <c r="D1067" t="n" s="1">
-        <v>1203.25</v>
+        <v>1203.75</v>
       </c>
       <c r="E1067" t="n" s="1">
         <v>285.0</v>
@@ -50255,7 +50255,7 @@
         <v>26</v>
       </c>
       <c r="D1068" t="n" s="1">
-        <v>1203.75</v>
+        <v>1204.25</v>
       </c>
       <c r="E1068" t="n" s="1">
         <v>286.0</v>
@@ -50302,7 +50302,7 @@
         <v>27</v>
       </c>
       <c r="D1069" t="n" s="1">
-        <v>1202.25</v>
+        <v>1202.75</v>
       </c>
       <c r="E1069" t="n" s="1">
         <v>286.25</v>
@@ -50349,7 +50349,7 @@
         <v>28</v>
       </c>
       <c r="D1070" t="n" s="1">
-        <v>1202.0</v>
+        <v>1202.5</v>
       </c>
       <c r="E1070" t="n" s="1">
         <v>277.75</v>
@@ -50396,7 +50396,7 @@
         <v>29</v>
       </c>
       <c r="D1071" t="n" s="1">
-        <v>1203.25</v>
+        <v>1203.5</v>
       </c>
       <c r="E1071" t="n" s="1">
         <v>297.75</v>
@@ -50443,7 +50443,7 @@
         <v>30</v>
       </c>
       <c r="D1072" t="n" s="1">
-        <v>1203.0</v>
+        <v>1203.25</v>
       </c>
       <c r="E1072" t="n" s="1">
         <v>282.0</v>
@@ -50490,7 +50490,7 @@
         <v>31</v>
       </c>
       <c r="D1073" t="n" s="1">
-        <v>1203.0</v>
+        <v>1203.5</v>
       </c>
       <c r="E1073" t="n" s="1">
         <v>276.75</v>
@@ -50537,7 +50537,7 @@
         <v>32</v>
       </c>
       <c r="D1074" t="n" s="1">
-        <v>1201.25</v>
+        <v>1201.75</v>
       </c>
       <c r="E1074" t="n" s="1">
         <v>277.75</v>
@@ -50584,7 +50584,7 @@
         <v>33</v>
       </c>
       <c r="D1075" t="n" s="1">
-        <v>1202.0</v>
+        <v>1202.5</v>
       </c>
       <c r="E1075" t="n" s="1">
         <v>276.5</v>
@@ -50631,7 +50631,7 @@
         <v>34</v>
       </c>
       <c r="D1076" t="n" s="1">
-        <v>1201.25</v>
+        <v>1201.75</v>
       </c>
       <c r="E1076" t="n" s="1">
         <v>275.0</v>
@@ -50678,7 +50678,7 @@
         <v>35</v>
       </c>
       <c r="D1077" t="n" s="1">
-        <v>1198.75</v>
+        <v>1199.25</v>
       </c>
       <c r="E1077" t="n" s="1">
         <v>274.25</v>
@@ -50725,7 +50725,7 @@
         <v>36</v>
       </c>
       <c r="D1078" t="n" s="1">
-        <v>1199.75</v>
+        <v>1200.25</v>
       </c>
       <c r="E1078" t="n" s="1">
         <v>273.75</v>
@@ -50772,7 +50772,7 @@
         <v>37</v>
       </c>
       <c r="D1079" t="n" s="1">
-        <v>1199.25</v>
+        <v>1199.75</v>
       </c>
       <c r="E1079" t="n" s="1">
         <v>272.5</v>
@@ -50819,7 +50819,7 @@
         <v>38</v>
       </c>
       <c r="D1080" t="n" s="1">
-        <v>1198.0</v>
+        <v>1198.5</v>
       </c>
       <c r="E1080" t="n" s="1">
         <v>271.5</v>
@@ -50866,7 +50866,7 @@
         <v>39</v>
       </c>
       <c r="D1081" t="n" s="1">
-        <v>1195.5</v>
+        <v>1195.75</v>
       </c>
       <c r="E1081" t="n" s="1">
         <v>270.75</v>
@@ -50913,7 +50913,7 @@
         <v>40</v>
       </c>
       <c r="D1082" t="n" s="1">
-        <v>1191.0</v>
+        <v>1191.5</v>
       </c>
       <c r="E1082" t="n" s="1">
         <v>268.75</v>
@@ -50960,7 +50960,7 @@
         <v>41</v>
       </c>
       <c r="D1083" t="n" s="1">
-        <v>1194.25</v>
+        <v>1194.75</v>
       </c>
       <c r="E1083" t="n" s="1">
         <v>270.0</v>
@@ -51007,7 +51007,7 @@
         <v>42</v>
       </c>
       <c r="D1084" t="n" s="1">
-        <v>1193.25</v>
+        <v>1193.75</v>
       </c>
       <c r="E1084" t="n" s="1">
         <v>269.5</v>
@@ -51054,7 +51054,7 @@
         <v>43</v>
       </c>
       <c r="D1085" t="n" s="1">
-        <v>1191.75</v>
+        <v>1192.25</v>
       </c>
       <c r="E1085" t="n" s="1">
         <v>268.25</v>
@@ -51101,7 +51101,7 @@
         <v>44</v>
       </c>
       <c r="D1086" t="n" s="1">
-        <v>1190.0</v>
+        <v>1190.5</v>
       </c>
       <c r="E1086" t="n" s="1">
         <v>273.5</v>
@@ -51148,7 +51148,7 @@
         <v>45</v>
       </c>
       <c r="D1087" t="n" s="1">
-        <v>1192.0</v>
+        <v>1192.5</v>
       </c>
       <c r="E1087" t="n" s="1">
         <v>275.75</v>
@@ -51195,7 +51195,7 @@
         <v>46</v>
       </c>
       <c r="D1088" t="n" s="1">
-        <v>1191.0</v>
+        <v>1191.5</v>
       </c>
       <c r="E1088" t="n" s="1">
         <v>273.0</v>
@@ -51242,7 +51242,7 @@
         <v>47</v>
       </c>
       <c r="D1089" t="n" s="1">
-        <v>1189.0</v>
+        <v>1189.5</v>
       </c>
       <c r="E1089" t="n" s="1">
         <v>271.75</v>
@@ -51289,7 +51289,7 @@
         <v>48</v>
       </c>
       <c r="D1090" t="n" s="1">
-        <v>1188.0</v>
+        <v>1188.5</v>
       </c>
       <c r="E1090" t="n" s="1">
         <v>273.5</v>
@@ -51336,7 +51336,7 @@
         <v>49</v>
       </c>
       <c r="D1091" t="n" s="1">
-        <v>1190.5</v>
+        <v>1191.0</v>
       </c>
       <c r="E1091" t="n" s="1">
         <v>284.5</v>
@@ -51383,7 +51383,7 @@
         <v>50</v>
       </c>
       <c r="D1092" t="n" s="1">
-        <v>1191.0</v>
+        <v>1191.5</v>
       </c>
       <c r="E1092" t="n" s="1">
         <v>292.25</v>
@@ -51430,7 +51430,7 @@
         <v>51</v>
       </c>
       <c r="D1093" t="n" s="1">
-        <v>1190.75</v>
+        <v>1191.25</v>
       </c>
       <c r="E1093" t="n" s="1">
         <v>293.0</v>
@@ -51477,7 +51477,7 @@
         <v>52</v>
       </c>
       <c r="D1094" t="n" s="1">
-        <v>1187.75</v>
+        <v>1188.0</v>
       </c>
       <c r="E1094" t="n" s="1">
         <v>304.0</v>
@@ -51524,7 +51524,7 @@
         <v>53</v>
       </c>
       <c r="D1095" t="n" s="1">
-        <v>1180.75</v>
+        <v>1181.25</v>
       </c>
       <c r="E1095" t="n" s="1">
         <v>311.5</v>
@@ -51571,7 +51571,7 @@
         <v>54</v>
       </c>
       <c r="D1096" t="n" s="1">
-        <v>1186.25</v>
+        <v>1186.75</v>
       </c>
       <c r="E1096" t="n" s="1">
         <v>312.0</v>
@@ -51618,7 +51618,7 @@
         <v>55</v>
       </c>
       <c r="D1097" t="n" s="1">
-        <v>1181.5</v>
+        <v>1182.0</v>
       </c>
       <c r="E1097" t="n" s="1">
         <v>310.25</v>
@@ -51665,7 +51665,7 @@
         <v>56</v>
       </c>
       <c r="D1098" t="n" s="1">
-        <v>1190.25</v>
+        <v>1190.75</v>
       </c>
       <c r="E1098" t="n" s="1">
         <v>319.0</v>
@@ -51712,7 +51712,7 @@
         <v>57</v>
       </c>
       <c r="D1099" t="n" s="1">
-        <v>1193.5</v>
+        <v>1194.0</v>
       </c>
       <c r="E1099" t="n" s="1">
         <v>311.75</v>
@@ -51759,7 +51759,7 @@
         <v>58</v>
       </c>
       <c r="D1100" t="n" s="1">
-        <v>1192.5</v>
+        <v>1193.0</v>
       </c>
       <c r="E1100" t="n" s="1">
         <v>307.75</v>
@@ -51806,7 +51806,7 @@
         <v>59</v>
       </c>
       <c r="D1101" t="n" s="1">
-        <v>1198.0</v>
+        <v>1198.5</v>
       </c>
       <c r="E1101" t="n" s="1">
         <v>317.25</v>
@@ -51853,7 +51853,7 @@
         <v>60</v>
       </c>
       <c r="D1102" t="n" s="1">
-        <v>1194.5</v>
+        <v>1195.0</v>
       </c>
       <c r="E1102" t="n" s="1">
         <v>321.75</v>
@@ -51862,7 +51862,7 @@
         <v>566.5</v>
       </c>
       <c r="G1102" t="n" s="1">
-        <v>840.0</v>
+        <v>840.25</v>
       </c>
       <c r="H1102" t="n" s="1">
         <v>155.5</v>
@@ -51900,7 +51900,7 @@
         <v>61</v>
       </c>
       <c r="D1103" t="n" s="1">
-        <v>1199.75</v>
+        <v>1200.25</v>
       </c>
       <c r="E1103" t="n" s="1">
         <v>343.5</v>
@@ -51947,7 +51947,7 @@
         <v>62</v>
       </c>
       <c r="D1104" t="n" s="1">
-        <v>1196.5</v>
+        <v>1197.0</v>
       </c>
       <c r="E1104" t="n" s="1">
         <v>339.5</v>
@@ -51956,7 +51956,7 @@
         <v>493.5</v>
       </c>
       <c r="G1104" t="n" s="1">
-        <v>802.5</v>
+        <v>802.75</v>
       </c>
       <c r="H1104" t="n" s="1">
         <v>358.5</v>
@@ -51994,7 +51994,7 @@
         <v>63</v>
       </c>
       <c r="D1105" t="n" s="1">
-        <v>1195.75</v>
+        <v>1196.25</v>
       </c>
       <c r="E1105" t="n" s="1">
         <v>328.25</v>
@@ -52041,7 +52041,7 @@
         <v>64</v>
       </c>
       <c r="D1106" t="n" s="1">
-        <v>1199.25</v>
+        <v>1199.75</v>
       </c>
       <c r="E1106" t="n" s="1">
         <v>329.75</v>
@@ -52053,7 +52053,7 @@
         <v>758.5</v>
       </c>
       <c r="H1106" t="n" s="1">
-        <v>603.0</v>
+        <v>603.25</v>
       </c>
       <c r="I1106" t="n" s="1">
         <v>47.0</v>
@@ -52088,7 +52088,7 @@
         <v>65</v>
       </c>
       <c r="D1107" t="n" s="1">
-        <v>1196.25</v>
+        <v>1196.75</v>
       </c>
       <c r="E1107" t="n" s="1">
         <v>332.5</v>
@@ -52100,7 +52100,7 @@
         <v>743.25</v>
       </c>
       <c r="H1107" t="n" s="1">
-        <v>725.5</v>
+        <v>725.75</v>
       </c>
       <c r="I1107" t="n" s="1">
         <v>47.0</v>
@@ -52135,7 +52135,7 @@
         <v>66</v>
       </c>
       <c r="D1108" t="n" s="1">
-        <v>1195.5</v>
+        <v>1196.0</v>
       </c>
       <c r="E1108" t="n" s="1">
         <v>316.25</v>
@@ -52147,7 +52147,7 @@
         <v>715.0</v>
       </c>
       <c r="H1108" t="n" s="1">
-        <v>846.0</v>
+        <v>846.25</v>
       </c>
       <c r="I1108" t="n" s="1">
         <v>47.0</v>
@@ -52182,7 +52182,7 @@
         <v>67</v>
       </c>
       <c r="D1109" t="n" s="1">
-        <v>1198.5</v>
+        <v>1199.0</v>
       </c>
       <c r="E1109" t="n" s="1">
         <v>316.5</v>
@@ -52194,7 +52194,7 @@
         <v>682.25</v>
       </c>
       <c r="H1109" t="n" s="1">
-        <v>924.75</v>
+        <v>925.0</v>
       </c>
       <c r="I1109" t="n" s="1">
         <v>47.0</v>
@@ -52229,7 +52229,7 @@
         <v>68</v>
       </c>
       <c r="D1110" t="n" s="1">
-        <v>1195.75</v>
+        <v>1196.25</v>
       </c>
       <c r="E1110" t="n" s="1">
         <v>298.75</v>
@@ -52241,7 +52241,7 @@
         <v>639.25</v>
       </c>
       <c r="H1110" t="n" s="1">
-        <v>994.75</v>
+        <v>995.25</v>
       </c>
       <c r="I1110" t="n" s="1">
         <v>47.0</v>
@@ -52276,7 +52276,7 @@
         <v>69</v>
       </c>
       <c r="D1111" t="n" s="1">
-        <v>1194.75</v>
+        <v>1195.25</v>
       </c>
       <c r="E1111" t="n" s="1">
         <v>294.75</v>
@@ -52288,7 +52288,7 @@
         <v>609.0</v>
       </c>
       <c r="H1111" t="n" s="1">
-        <v>1070.25</v>
+        <v>1070.75</v>
       </c>
       <c r="I1111" t="n" s="1">
         <v>47.0</v>
@@ -52323,7 +52323,7 @@
         <v>70</v>
       </c>
       <c r="D1112" t="n" s="1">
-        <v>1196.5</v>
+        <v>1197.0</v>
       </c>
       <c r="E1112" t="n" s="1">
         <v>294.75</v>
@@ -52335,7 +52335,7 @@
         <v>560.75</v>
       </c>
       <c r="H1112" t="n" s="1">
-        <v>1119.5</v>
+        <v>1119.75</v>
       </c>
       <c r="I1112" t="n" s="1">
         <v>47.0</v>
@@ -52370,7 +52370,7 @@
         <v>71</v>
       </c>
       <c r="D1113" t="n" s="1">
-        <v>1196.75</v>
+        <v>1197.25</v>
       </c>
       <c r="E1113" t="n" s="1">
         <v>311.25</v>
@@ -52379,10 +52379,10 @@
         <v>259.0</v>
       </c>
       <c r="G1113" t="n" s="1">
-        <v>530.75</v>
+        <v>531.0</v>
       </c>
       <c r="H1113" t="n" s="1">
-        <v>1154.0</v>
+        <v>1154.5</v>
       </c>
       <c r="I1113" t="n" s="1">
         <v>47.0</v>
@@ -52417,7 +52417,7 @@
         <v>72</v>
       </c>
       <c r="D1114" t="n" s="1">
-        <v>1195.5</v>
+        <v>1196.0</v>
       </c>
       <c r="E1114" t="n" s="1">
         <v>299.0</v>
@@ -52429,7 +52429,7 @@
         <v>510.0</v>
       </c>
       <c r="H1114" t="n" s="1">
-        <v>1154.0</v>
+        <v>1154.5</v>
       </c>
       <c r="I1114" t="n" s="1">
         <v>47.0</v>
@@ -52464,7 +52464,7 @@
         <v>73</v>
       </c>
       <c r="D1115" t="n" s="1">
-        <v>1199.75</v>
+        <v>1200.25</v>
       </c>
       <c r="E1115" t="n" s="1">
         <v>308.25</v>
@@ -52476,7 +52476,7 @@
         <v>488.25</v>
       </c>
       <c r="H1115" t="n" s="1">
-        <v>1149.0</v>
+        <v>1149.5</v>
       </c>
       <c r="I1115" t="n" s="1">
         <v>47.0</v>
@@ -52511,7 +52511,7 @@
         <v>74</v>
       </c>
       <c r="D1116" t="n" s="1">
-        <v>1199.25</v>
+        <v>1199.75</v>
       </c>
       <c r="E1116" t="n" s="1">
         <v>302.75</v>
@@ -52523,7 +52523,7 @@
         <v>480.0</v>
       </c>
       <c r="H1116" t="n" s="1">
-        <v>1146.25</v>
+        <v>1146.75</v>
       </c>
       <c r="I1116" t="n" s="1">
         <v>47.0</v>
@@ -52558,7 +52558,7 @@
         <v>75</v>
       </c>
       <c r="D1117" t="n" s="1">
-        <v>1196.75</v>
+        <v>1197.25</v>
       </c>
       <c r="E1117" t="n" s="1">
         <v>288.5</v>
@@ -52570,7 +52570,7 @@
         <v>479.5</v>
       </c>
       <c r="H1117" t="n" s="1">
-        <v>1135.5</v>
+        <v>1136.0</v>
       </c>
       <c r="I1117" t="n" s="1">
         <v>47.0</v>
@@ -52605,7 +52605,7 @@
         <v>76</v>
       </c>
       <c r="D1118" t="n" s="1">
-        <v>1197.5</v>
+        <v>1198.0</v>
       </c>
       <c r="E1118" t="n" s="1">
         <v>291.5</v>
@@ -52614,10 +52614,10 @@
         <v>525.75</v>
       </c>
       <c r="G1118" t="n" s="1">
-        <v>483.25</v>
+        <v>483.5</v>
       </c>
       <c r="H1118" t="n" s="1">
-        <v>1116.25</v>
+        <v>1116.75</v>
       </c>
       <c r="I1118" t="n" s="1">
         <v>47.0</v>
@@ -52652,7 +52652,7 @@
         <v>77</v>
       </c>
       <c r="D1119" t="n" s="1">
-        <v>1202.5</v>
+        <v>1202.75</v>
       </c>
       <c r="E1119" t="n" s="1">
         <v>311.5</v>
@@ -52661,10 +52661,10 @@
         <v>537.5</v>
       </c>
       <c r="G1119" t="n" s="1">
-        <v>473.25</v>
+        <v>473.5</v>
       </c>
       <c r="H1119" t="n" s="1">
-        <v>1069.25</v>
+        <v>1069.75</v>
       </c>
       <c r="I1119" t="n" s="1">
         <v>47.0</v>
@@ -52699,7 +52699,7 @@
         <v>78</v>
       </c>
       <c r="D1120" t="n" s="1">
-        <v>1203.0</v>
+        <v>1203.5</v>
       </c>
       <c r="E1120" t="n" s="1">
         <v>302.25</v>
@@ -52711,7 +52711,7 @@
         <v>465.75</v>
       </c>
       <c r="H1120" t="n" s="1">
-        <v>996.25</v>
+        <v>996.75</v>
       </c>
       <c r="I1120" t="n" s="1">
         <v>47.0</v>
@@ -52746,7 +52746,7 @@
         <v>79</v>
       </c>
       <c r="D1121" t="n" s="1">
-        <v>1202.5</v>
+        <v>1203.0</v>
       </c>
       <c r="E1121" t="n" s="1">
         <v>293.5</v>
@@ -52758,7 +52758,7 @@
         <v>467.0</v>
       </c>
       <c r="H1121" t="n" s="1">
-        <v>901.25</v>
+        <v>901.75</v>
       </c>
       <c r="I1121" t="n" s="1">
         <v>47.0</v>
@@ -52793,7 +52793,7 @@
         <v>80</v>
       </c>
       <c r="D1122" t="n" s="1">
-        <v>1200.25</v>
+        <v>1200.75</v>
       </c>
       <c r="E1122" t="n" s="1">
         <v>293.25</v>
@@ -52805,7 +52805,7 @@
         <v>464.75</v>
       </c>
       <c r="H1122" t="n" s="1">
-        <v>799.5</v>
+        <v>800.0</v>
       </c>
       <c r="I1122" t="n" s="1">
         <v>47.0</v>
@@ -52840,7 +52840,7 @@
         <v>81</v>
       </c>
       <c r="D1123" t="n" s="1">
-        <v>1202.0</v>
+        <v>1202.5</v>
       </c>
       <c r="E1123" t="n" s="1">
         <v>299.0</v>
@@ -52849,10 +52849,10 @@
         <v>508.75</v>
       </c>
       <c r="G1123" t="n" s="1">
-        <v>463.25</v>
+        <v>463.5</v>
       </c>
       <c r="H1123" t="n" s="1">
-        <v>687.75</v>
+        <v>688.25</v>
       </c>
       <c r="I1123" t="n" s="1">
         <v>47.0</v>
@@ -52887,7 +52887,7 @@
         <v>82</v>
       </c>
       <c r="D1124" t="n" s="1">
-        <v>1203.0</v>
+        <v>1203.5</v>
       </c>
       <c r="E1124" t="n" s="1">
         <v>301.75</v>
@@ -52896,10 +52896,10 @@
         <v>510.0</v>
       </c>
       <c r="G1124" t="n" s="1">
-        <v>452.25</v>
+        <v>452.5</v>
       </c>
       <c r="H1124" t="n" s="1">
-        <v>580.0</v>
+        <v>580.25</v>
       </c>
       <c r="I1124" t="n" s="1">
         <v>47.0</v>
@@ -52934,7 +52934,7 @@
         <v>83</v>
       </c>
       <c r="D1125" t="n" s="1">
-        <v>1201.75</v>
+        <v>1202.25</v>
       </c>
       <c r="E1125" t="n" s="1">
         <v>317.0</v>
@@ -52946,7 +52946,7 @@
         <v>455.5</v>
       </c>
       <c r="H1125" t="n" s="1">
-        <v>478.5</v>
+        <v>478.75</v>
       </c>
       <c r="I1125" t="n" s="1">
         <v>47.0</v>
@@ -52981,7 +52981,7 @@
         <v>84</v>
       </c>
       <c r="D1126" t="n" s="1">
-        <v>1200.75</v>
+        <v>1201.25</v>
       </c>
       <c r="E1126" t="n" s="1">
         <v>310.75</v>
@@ -52993,7 +52993,7 @@
         <v>461.0</v>
       </c>
       <c r="H1126" t="n" s="1">
-        <v>379.5</v>
+        <v>379.75</v>
       </c>
       <c r="I1126" t="n" s="1">
         <v>47.0</v>
@@ -53028,7 +53028,7 @@
         <v>85</v>
       </c>
       <c r="D1127" t="n" s="1">
-        <v>1208.25</v>
+        <v>1208.75</v>
       </c>
       <c r="E1127" t="n" s="1">
         <v>309.5</v>
@@ -53040,7 +53040,7 @@
         <v>473.5</v>
       </c>
       <c r="H1127" t="n" s="1">
-        <v>277.25</v>
+        <v>277.5</v>
       </c>
       <c r="I1127" t="n" s="1">
         <v>47.0</v>
@@ -53075,7 +53075,7 @@
         <v>86</v>
       </c>
       <c r="D1128" t="n" s="1">
-        <v>1212.25</v>
+        <v>1212.75</v>
       </c>
       <c r="E1128" t="n" s="1">
         <v>312.25</v>
@@ -53084,7 +53084,7 @@
         <v>533.5</v>
       </c>
       <c r="G1128" t="n" s="1">
-        <v>494.75</v>
+        <v>495.0</v>
       </c>
       <c r="H1128" t="n" s="1">
         <v>183.75</v>
@@ -53122,7 +53122,7 @@
         <v>87</v>
       </c>
       <c r="D1129" t="n" s="1">
-        <v>1215.5</v>
+        <v>1216.0</v>
       </c>
       <c r="E1129" t="n" s="1">
         <v>305.25</v>
@@ -53131,7 +53131,7 @@
         <v>515.0</v>
       </c>
       <c r="G1129" t="n" s="1">
-        <v>531.0</v>
+        <v>531.25</v>
       </c>
       <c r="H1129" t="n" s="1">
         <v>103.0</v>
@@ -53169,7 +53169,7 @@
         <v>88</v>
       </c>
       <c r="D1130" t="n" s="1">
-        <v>1217.0</v>
+        <v>1217.5</v>
       </c>
       <c r="E1130" t="n" s="1">
         <v>302.5</v>
@@ -53216,7 +53216,7 @@
         <v>89</v>
       </c>
       <c r="D1131" t="n" s="1">
-        <v>1220.75</v>
+        <v>1221.25</v>
       </c>
       <c r="E1131" t="n" s="1">
         <v>304.75</v>
@@ -53225,7 +53225,7 @@
         <v>595.0</v>
       </c>
       <c r="G1131" t="n" s="1">
-        <v>546.75</v>
+        <v>547.0</v>
       </c>
       <c r="H1131" t="n" s="1">
         <v>11.25</v>
@@ -53263,7 +53263,7 @@
         <v>90</v>
       </c>
       <c r="D1132" t="n" s="1">
-        <v>1221.5</v>
+        <v>1222.0</v>
       </c>
       <c r="E1132" t="n" s="1">
         <v>314.5</v>
@@ -53310,7 +53310,7 @@
         <v>91</v>
       </c>
       <c r="D1133" t="n" s="1">
-        <v>1225.0</v>
+        <v>1225.5</v>
       </c>
       <c r="E1133" t="n" s="1">
         <v>314.75</v>
@@ -53357,7 +53357,7 @@
         <v>92</v>
       </c>
       <c r="D1134" t="n" s="1">
-        <v>1223.0</v>
+        <v>1223.5</v>
       </c>
       <c r="E1134" t="n" s="1">
         <v>327.25</v>
@@ -53404,7 +53404,7 @@
         <v>93</v>
       </c>
       <c r="D1135" t="n" s="1">
-        <v>1221.5</v>
+        <v>1222.0</v>
       </c>
       <c r="E1135" t="n" s="1">
         <v>325.25</v>
@@ -53451,7 +53451,7 @@
         <v>94</v>
       </c>
       <c r="D1136" t="n" s="1">
-        <v>1221.0</v>
+        <v>1221.5</v>
       </c>
       <c r="E1136" t="n" s="1">
         <v>322.0</v>
@@ -53498,7 +53498,7 @@
         <v>95</v>
       </c>
       <c r="D1137" t="n" s="1">
-        <v>1224.5</v>
+        <v>1225.0</v>
       </c>
       <c r="E1137" t="n" s="1">
         <v>318.75</v>
@@ -53545,7 +53545,7 @@
         <v>96</v>
       </c>
       <c r="D1138" t="n" s="1">
-        <v>1224.0</v>
+        <v>1224.5</v>
       </c>
       <c r="E1138" t="n" s="1">
         <v>317.5</v>
@@ -53592,7 +53592,7 @@
         <v>97</v>
       </c>
       <c r="D1139" t="n" s="1">
-        <v>1224.0</v>
+        <v>1224.5</v>
       </c>
       <c r="E1139" t="n" s="1">
         <v>315.0</v>
@@ -53639,7 +53639,7 @@
         <v>98</v>
       </c>
       <c r="D1140" t="n" s="1">
-        <v>1224.75</v>
+        <v>1225.25</v>
       </c>
       <c r="E1140" t="n" s="1">
         <v>320.0</v>
@@ -53686,7 +53686,7 @@
         <v>99</v>
       </c>
       <c r="D1141" t="n" s="1">
-        <v>1224.5</v>
+        <v>1224.75</v>
       </c>
       <c r="E1141" t="n" s="1">
         <v>324.5</v>
@@ -53733,7 +53733,7 @@
         <v>100</v>
       </c>
       <c r="D1142" t="n" s="1">
-        <v>1223.75</v>
+        <v>1224.25</v>
       </c>
       <c r="E1142" t="n" s="1">
         <v>322.25</v>
@@ -53780,7 +53780,7 @@
         <v>101</v>
       </c>
       <c r="D1143" t="n" s="1">
-        <v>1224.5</v>
+        <v>1225.0</v>
       </c>
       <c r="E1143" t="n" s="1">
         <v>323.0</v>
@@ -53789,7 +53789,7 @@
         <v>606.75</v>
       </c>
       <c r="G1143" t="n" s="1">
-        <v>700.75</v>
+        <v>701.0</v>
       </c>
       <c r="H1143" t="n" s="1">
         <v>0.0</v>
@@ -53827,7 +53827,7 @@
         <v>102</v>
       </c>
       <c r="D1144" t="n" s="1">
-        <v>1222.5</v>
+        <v>1223.0</v>
       </c>
       <c r="E1144" t="n" s="1">
         <v>301.25</v>
@@ -53836,7 +53836,7 @@
         <v>590.5</v>
       </c>
       <c r="G1144" t="n" s="1">
-        <v>701.5</v>
+        <v>701.75</v>
       </c>
       <c r="H1144" t="n" s="1">
         <v>0.0</v>
@@ -53874,7 +53874,7 @@
         <v>103</v>
       </c>
       <c r="D1145" t="n" s="1">
-        <v>1223.0</v>
+        <v>1223.5</v>
       </c>
       <c r="E1145" t="n" s="1">
         <v>301.5</v>
@@ -53883,7 +53883,7 @@
         <v>556.0</v>
       </c>
       <c r="G1145" t="n" s="1">
-        <v>717.25</v>
+        <v>717.5</v>
       </c>
       <c r="H1145" t="n" s="1">
         <v>0.0</v>
@@ -53921,7 +53921,7 @@
         <v>104</v>
       </c>
       <c r="D1146" t="n" s="1">
-        <v>1221.75</v>
+        <v>1222.25</v>
       </c>
       <c r="E1146" t="n" s="1">
         <v>324.0</v>
@@ -53968,7 +53968,7 @@
         <v>105</v>
       </c>
       <c r="D1147" t="n" s="1">
-        <v>1222.25</v>
+        <v>1222.75</v>
       </c>
       <c r="E1147" t="n" s="1">
         <v>326.25</v>
@@ -53977,7 +53977,7 @@
         <v>624.75</v>
       </c>
       <c r="G1147" t="n" s="1">
-        <v>686.75</v>
+        <v>687.0</v>
       </c>
       <c r="H1147" t="n" s="1">
         <v>0.0</v>
@@ -54015,7 +54015,7 @@
         <v>106</v>
       </c>
       <c r="D1148" t="n" s="1">
-        <v>1223.0</v>
+        <v>1223.5</v>
       </c>
       <c r="E1148" t="n" s="1">
         <v>325.25</v>
@@ -54062,7 +54062,7 @@
         <v>107</v>
       </c>
       <c r="D1149" t="n" s="1">
-        <v>1223.25</v>
+        <v>1223.75</v>
       </c>
       <c r="E1149" t="n" s="1">
         <v>322.25</v>
@@ -54109,7 +54109,7 @@
         <v>108</v>
       </c>
       <c r="D1150" t="n" s="1">
-        <v>1223.25</v>
+        <v>1223.75</v>
       </c>
       <c r="E1150" t="n" s="1">
         <v>323.5</v>
@@ -54118,7 +54118,7 @@
         <v>580.5</v>
       </c>
       <c r="G1150" t="n" s="1">
-        <v>651.25</v>
+        <v>651.5</v>
       </c>
       <c r="H1150" t="n" s="1">
         <v>0.0</v>
@@ -54156,7 +54156,7 @@
         <v>109</v>
       </c>
       <c r="D1151" t="n" s="1">
-        <v>1232.25</v>
+        <v>1232.75</v>
       </c>
       <c r="E1151" t="n" s="1">
         <v>323.5</v>
@@ -54165,7 +54165,7 @@
         <v>545.0</v>
       </c>
       <c r="G1151" t="n" s="1">
-        <v>628.25</v>
+        <v>628.5</v>
       </c>
       <c r="H1151" t="n" s="1">
         <v>0.0</v>
@@ -54203,7 +54203,7 @@
         <v>110</v>
       </c>
       <c r="D1152" t="n" s="1">
-        <v>1239.0</v>
+        <v>1239.5</v>
       </c>
       <c r="E1152" t="n" s="1">
         <v>317.5</v>
@@ -54250,7 +54250,7 @@
         <v>111</v>
       </c>
       <c r="D1153" t="n" s="1">
-        <v>1243.25</v>
+        <v>1243.75</v>
       </c>
       <c r="E1153" t="n" s="1">
         <v>303.25</v>
@@ -54259,7 +54259,7 @@
         <v>574.25</v>
       </c>
       <c r="G1153" t="n" s="1">
-        <v>605.5</v>
+        <v>605.75</v>
       </c>
       <c r="H1153" t="n" s="1">
         <v>0.0</v>
@@ -54297,7 +54297,7 @@
         <v>112</v>
       </c>
       <c r="D1154" t="n" s="1">
-        <v>1245.25</v>
+        <v>1245.75</v>
       </c>
       <c r="E1154" t="n" s="1">
         <v>302.75</v>
@@ -54306,7 +54306,7 @@
         <v>614.25</v>
       </c>
       <c r="G1154" t="n" s="1">
-        <v>604.75</v>
+        <v>605.0</v>
       </c>
       <c r="H1154" t="n" s="1">
         <v>0.0</v>
@@ -54344,7 +54344,7 @@
         <v>113</v>
       </c>
       <c r="D1155" t="n" s="1">
-        <v>1242.0</v>
+        <v>1242.5</v>
       </c>
       <c r="E1155" t="n" s="1">
         <v>309.0</v>
@@ -54353,7 +54353,7 @@
         <v>644.25</v>
       </c>
       <c r="G1155" t="n" s="1">
-        <v>602.0</v>
+        <v>602.25</v>
       </c>
       <c r="H1155" t="n" s="1">
         <v>0.0</v>
@@ -54391,7 +54391,7 @@
         <v>114</v>
       </c>
       <c r="D1156" t="n" s="1">
-        <v>1245.5</v>
+        <v>1246.0</v>
       </c>
       <c r="E1156" t="n" s="1">
         <v>310.25</v>
@@ -54400,7 +54400,7 @@
         <v>626.0</v>
       </c>
       <c r="G1156" t="n" s="1">
-        <v>599.25</v>
+        <v>599.5</v>
       </c>
       <c r="H1156" t="n" s="1">
         <v>0.0</v>
@@ -54438,7 +54438,7 @@
         <v>115</v>
       </c>
       <c r="D1157" t="n" s="1">
-        <v>1248.75</v>
+        <v>1249.25</v>
       </c>
       <c r="E1157" t="n" s="1">
         <v>301.75</v>
@@ -54447,7 +54447,7 @@
         <v>634.0</v>
       </c>
       <c r="G1157" t="n" s="1">
-        <v>579.5</v>
+        <v>579.75</v>
       </c>
       <c r="H1157" t="n" s="1">
         <v>0.0</v>
@@ -54485,7 +54485,7 @@
         <v>116</v>
       </c>
       <c r="D1158" t="n" s="1">
-        <v>1249.5</v>
+        <v>1250.0</v>
       </c>
       <c r="E1158" t="n" s="1">
         <v>304.0</v>
@@ -54494,7 +54494,7 @@
         <v>629.0</v>
       </c>
       <c r="G1158" t="n" s="1">
-        <v>566.75</v>
+        <v>567.0</v>
       </c>
       <c r="H1158" t="n" s="1">
         <v>0.0</v>
@@ -54532,7 +54532,7 @@
         <v>117</v>
       </c>
       <c r="D1159" t="n" s="1">
-        <v>1253.0</v>
+        <v>1253.5</v>
       </c>
       <c r="E1159" t="n" s="1">
         <v>314.75</v>
@@ -54579,7 +54579,7 @@
         <v>118</v>
       </c>
       <c r="D1160" t="n" s="1">
-        <v>1255.5</v>
+        <v>1256.0</v>
       </c>
       <c r="E1160" t="n" s="1">
         <v>298.5</v>
@@ -54588,7 +54588,7 @@
         <v>674.25</v>
       </c>
       <c r="G1160" t="n" s="1">
-        <v>585.75</v>
+        <v>586.0</v>
       </c>
       <c r="H1160" t="n" s="1">
         <v>0.0</v>
@@ -54626,7 +54626,7 @@
         <v>119</v>
       </c>
       <c r="D1161" t="n" s="1">
-        <v>1253.75</v>
+        <v>1254.25</v>
       </c>
       <c r="E1161" t="n" s="1">
         <v>296.5</v>
@@ -54635,7 +54635,7 @@
         <v>627.5</v>
       </c>
       <c r="G1161" t="n" s="1">
-        <v>601.75</v>
+        <v>602.0</v>
       </c>
       <c r="H1161" t="n" s="1">
         <v>0.0</v>
@@ -54673,7 +54673,7 @@
         <v>24</v>
       </c>
       <c r="D1162" t="n" s="1">
-        <v>1254.5</v>
+        <v>1255.0</v>
       </c>
       <c r="E1162" t="n" s="1">
         <v>292.5</v>
@@ -54682,7 +54682,7 @@
         <v>617.5</v>
       </c>
       <c r="G1162" t="n" s="1">
-        <v>590.5</v>
+        <v>590.75</v>
       </c>
       <c r="H1162" t="n" s="1">
         <v>0.0</v>
@@ -70289,7 +70289,7 @@
         <v>1029.0</v>
       </c>
       <c r="H1494" t="n" s="1">
-        <v>1477.5</v>
+        <v>1478.0</v>
       </c>
       <c r="I1494" t="n" s="1">
         <v>46.75</v>
@@ -70336,7 +70336,7 @@
         <v>1010.0</v>
       </c>
       <c r="H1495" t="n" s="1">
-        <v>1610.0</v>
+        <v>1609.75</v>
       </c>
       <c r="I1495" t="n" s="1">
         <v>46.75</v>
@@ -70383,7 +70383,7 @@
         <v>979.75</v>
       </c>
       <c r="H1496" t="n" s="1">
-        <v>1732.5</v>
+        <v>1731.25</v>
       </c>
       <c r="I1496" t="n" s="1">
         <v>46.75</v>
@@ -70430,7 +70430,7 @@
         <v>930.25</v>
       </c>
       <c r="H1497" t="n" s="1">
-        <v>1814.25</v>
+        <v>1813.75</v>
       </c>
       <c r="I1497" t="n" s="1">
         <v>46.75</v>
@@ -70477,7 +70477,7 @@
         <v>879.25</v>
       </c>
       <c r="H1498" t="n" s="1">
-        <v>1926.5</v>
+        <v>1920.25</v>
       </c>
       <c r="I1498" t="n" s="1">
         <v>46.75</v>
@@ -70524,7 +70524,7 @@
         <v>832.0</v>
       </c>
       <c r="H1499" t="n" s="1">
-        <v>1971.25</v>
+        <v>1952.75</v>
       </c>
       <c r="I1499" t="n" s="1">
         <v>46.75</v>
@@ -70558,41 +70558,41 @@
       <c r="C1500" t="s">
         <v>74</v>
       </c>
-      <c r="D1500" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1500" t="s">
-        <v>135</v>
+      <c r="D1500" t="n" s="1">
+        <v>1244.75</v>
+      </c>
+      <c r="E1500" t="n" s="1">
+        <v>281.25</v>
       </c>
       <c r="F1500" t="n" s="1">
         <v>528.25</v>
       </c>
-      <c r="G1500" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1500" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1500" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1500" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1500" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1500" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1500" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1500" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1500" t="s">
-        <v>135</v>
+      <c r="G1500" t="n" s="1">
+        <v>796.25</v>
+      </c>
+      <c r="H1500" t="n" s="1">
+        <v>1991.0</v>
+      </c>
+      <c r="I1500" t="n" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="J1500" t="n" s="1">
+        <v>932.5</v>
+      </c>
+      <c r="K1500" t="n" s="1">
+        <v>3917.25</v>
+      </c>
+      <c r="L1500" t="n" s="1">
+        <v>3719.25</v>
+      </c>
+      <c r="M1500" t="n" s="1">
+        <v>4494.5</v>
+      </c>
+      <c r="N1500" t="n" s="1">
+        <v>283.75</v>
+      </c>
+      <c r="O1500" t="n" s="1">
+        <v>354.5</v>
       </c>
     </row>
     <row r="1501">
@@ -70605,41 +70605,41 @@
       <c r="C1501" t="s">
         <v>75</v>
       </c>
-      <c r="D1501" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1501" t="s">
-        <v>135</v>
+      <c r="D1501" t="n" s="1">
+        <v>1245.75</v>
+      </c>
+      <c r="E1501" t="n" s="1">
+        <v>281.0</v>
       </c>
       <c r="F1501" t="n" s="1">
         <v>560.0</v>
       </c>
-      <c r="G1501" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1501" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1501" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1501" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1501" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1501" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1501" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1501" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1501" t="s">
-        <v>135</v>
+      <c r="G1501" t="n" s="1">
+        <v>752.0</v>
+      </c>
+      <c r="H1501" t="n" s="1">
+        <v>1990.25</v>
+      </c>
+      <c r="I1501" t="n" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="J1501" t="n" s="1">
+        <v>932.25</v>
+      </c>
+      <c r="K1501" t="n" s="1">
+        <v>3916.75</v>
+      </c>
+      <c r="L1501" t="n" s="1">
+        <v>3725.5</v>
+      </c>
+      <c r="M1501" t="n" s="1">
+        <v>4063.25</v>
+      </c>
+      <c r="N1501" t="n" s="1">
+        <v>280.0</v>
+      </c>
+      <c r="O1501" t="n" s="1">
+        <v>353.25</v>
       </c>
     </row>
     <row r="1502">
@@ -70652,38 +70652,38 @@
       <c r="C1502" t="s">
         <v>76</v>
       </c>
-      <c r="D1502" t="s">
-        <v>135</v>
+      <c r="D1502" t="n" s="1">
+        <v>1252.25</v>
       </c>
       <c r="E1502" t="s">
         <v>135</v>
       </c>
-      <c r="F1502" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1502" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1502" t="s">
-        <v>135</v>
+      <c r="F1502" t="n" s="1">
+        <v>559.5</v>
+      </c>
+      <c r="G1502" t="n" s="1">
+        <v>729.25</v>
+      </c>
+      <c r="H1502" t="n" s="1">
+        <v>1944.5</v>
       </c>
       <c r="I1502" t="s">
         <v>135</v>
       </c>
-      <c r="J1502" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1502" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1502" t="s">
-        <v>135</v>
+      <c r="J1502" t="n" s="1">
+        <v>932.0</v>
+      </c>
+      <c r="K1502" t="n" s="1">
+        <v>3913.25</v>
+      </c>
+      <c r="L1502" t="n" s="1">
+        <v>3741.25</v>
       </c>
       <c r="M1502" t="s">
         <v>135</v>
       </c>
-      <c r="N1502" t="s">
-        <v>135</v>
+      <c r="N1502" t="n" s="1">
+        <v>295.75</v>
       </c>
       <c r="O1502" t="s">
         <v>135</v>
@@ -70699,41 +70699,41 @@
       <c r="C1503" t="s">
         <v>77</v>
       </c>
-      <c r="D1503" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1503" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1503" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1503" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1503" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1503" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1503" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1503" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1503" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1503" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1503" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1503" t="s">
-        <v>135</v>
+      <c r="D1503" t="n" s="1">
+        <v>1256.0</v>
+      </c>
+      <c r="E1503" t="n" s="1">
+        <v>276.25</v>
+      </c>
+      <c r="F1503" t="n" s="1">
+        <v>564.5</v>
+      </c>
+      <c r="G1503" t="n" s="1">
+        <v>738.0</v>
+      </c>
+      <c r="H1503" t="n" s="1">
+        <v>1891.5</v>
+      </c>
+      <c r="I1503" t="n" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="J1503" t="n" s="1">
+        <v>932.0</v>
+      </c>
+      <c r="K1503" t="n" s="1">
+        <v>3917.0</v>
+      </c>
+      <c r="L1503" t="n" s="1">
+        <v>3755.5</v>
+      </c>
+      <c r="M1503" t="n" s="1">
+        <v>4476.75</v>
+      </c>
+      <c r="N1503" t="n" s="1">
+        <v>248.0</v>
+      </c>
+      <c r="O1503" t="n" s="1">
+        <v>351.0</v>
       </c>
     </row>
     <row r="1504">
@@ -70746,41 +70746,41 @@
       <c r="C1504" t="s">
         <v>78</v>
       </c>
-      <c r="D1504" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1504" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1504" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1504" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1504" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1504" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1504" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1504" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1504" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1504" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1504" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1504" t="s">
-        <v>135</v>
+      <c r="D1504" t="n" s="1">
+        <v>1257.25</v>
+      </c>
+      <c r="E1504" t="n" s="1">
+        <v>275.25</v>
+      </c>
+      <c r="F1504" t="n" s="1">
+        <v>611.75</v>
+      </c>
+      <c r="G1504" t="n" s="1">
+        <v>717.25</v>
+      </c>
+      <c r="H1504" t="n" s="1">
+        <v>1773.5</v>
+      </c>
+      <c r="I1504" t="n" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="J1504" t="n" s="1">
+        <v>931.75</v>
+      </c>
+      <c r="K1504" t="n" s="1">
+        <v>3905.75</v>
+      </c>
+      <c r="L1504" t="n" s="1">
+        <v>3754.25</v>
+      </c>
+      <c r="M1504" t="n" s="1">
+        <v>4053.5</v>
+      </c>
+      <c r="N1504" t="n" s="1">
+        <v>269.25</v>
+      </c>
+      <c r="O1504" t="n" s="1">
+        <v>354.25</v>
       </c>
     </row>
     <row r="1505">
@@ -70793,41 +70793,41 @@
       <c r="C1505" t="s">
         <v>79</v>
       </c>
-      <c r="D1505" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1505" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1505" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1505" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1505" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1505" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1505" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1505" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1505" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1505" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1505" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1505" t="s">
-        <v>135</v>
+      <c r="D1505" t="n" s="1">
+        <v>1257.25</v>
+      </c>
+      <c r="E1505" t="n" s="1">
+        <v>276.0</v>
+      </c>
+      <c r="F1505" t="n" s="1">
+        <v>672.0</v>
+      </c>
+      <c r="G1505" t="n" s="1">
+        <v>707.25</v>
+      </c>
+      <c r="H1505" t="n" s="1">
+        <v>1643.0</v>
+      </c>
+      <c r="I1505" t="n" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="J1505" t="n" s="1">
+        <v>931.75</v>
+      </c>
+      <c r="K1505" t="n" s="1">
+        <v>3905.75</v>
+      </c>
+      <c r="L1505" t="n" s="1">
+        <v>3756.75</v>
+      </c>
+      <c r="M1505" t="n" s="1">
+        <v>4051.25</v>
+      </c>
+      <c r="N1505" t="n" s="1">
+        <v>246.25</v>
+      </c>
+      <c r="O1505" t="n" s="1">
+        <v>337.5</v>
       </c>
     </row>
     <row r="1506">
@@ -70840,41 +70840,41 @@
       <c r="C1506" t="s">
         <v>80</v>
       </c>
-      <c r="D1506" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1506" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1506" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1506" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1506" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1506" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1506" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1506" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1506" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1506" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1506" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1506" t="s">
-        <v>135</v>
+      <c r="D1506" t="n" s="1">
+        <v>1255.25</v>
+      </c>
+      <c r="E1506" t="n" s="1">
+        <v>274.5</v>
+      </c>
+      <c r="F1506" t="n" s="1">
+        <v>712.25</v>
+      </c>
+      <c r="G1506" t="n" s="1">
+        <v>734.25</v>
+      </c>
+      <c r="H1506" t="n" s="1">
+        <v>1491.5</v>
+      </c>
+      <c r="I1506" t="n" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="J1506" t="n" s="1">
+        <v>931.75</v>
+      </c>
+      <c r="K1506" t="n" s="1">
+        <v>3924.75</v>
+      </c>
+      <c r="L1506" t="n" s="1">
+        <v>3751.25</v>
+      </c>
+      <c r="M1506" t="n" s="1">
+        <v>4478.75</v>
+      </c>
+      <c r="N1506" t="n" s="1">
+        <v>222.25</v>
+      </c>
+      <c r="O1506" t="n" s="1">
+        <v>329.75</v>
       </c>
     </row>
     <row r="1507">
@@ -70887,41 +70887,41 @@
       <c r="C1507" t="s">
         <v>81</v>
       </c>
-      <c r="D1507" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1507" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1507" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1507" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1507" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1507" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1507" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1507" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1507" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1507" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1507" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1507" t="s">
-        <v>135</v>
+      <c r="D1507" t="n" s="1">
+        <v>1255.75</v>
+      </c>
+      <c r="E1507" t="n" s="1">
+        <v>283.25</v>
+      </c>
+      <c r="F1507" t="n" s="1">
+        <v>689.75</v>
+      </c>
+      <c r="G1507" t="n" s="1">
+        <v>754.0</v>
+      </c>
+      <c r="H1507" t="n" s="1">
+        <v>1309.75</v>
+      </c>
+      <c r="I1507" t="n" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="J1507" t="n" s="1">
+        <v>931.5</v>
+      </c>
+      <c r="K1507" t="n" s="1">
+        <v>3968.5</v>
+      </c>
+      <c r="L1507" t="n" s="1">
+        <v>3757.5</v>
+      </c>
+      <c r="M1507" t="n" s="1">
+        <v>4058.75</v>
+      </c>
+      <c r="N1507" t="n" s="1">
+        <v>180.75</v>
+      </c>
+      <c r="O1507" t="n" s="1">
+        <v>328.5</v>
       </c>
     </row>
     <row r="1508">
@@ -70934,41 +70934,41 @@
       <c r="C1508" t="s">
         <v>82</v>
       </c>
-      <c r="D1508" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1508" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1508" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1508" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1508" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1508" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1508" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1508" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1508" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1508" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1508" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1508" t="s">
-        <v>135</v>
+      <c r="D1508" t="n" s="1">
+        <v>1254.0</v>
+      </c>
+      <c r="E1508" t="n" s="1">
+        <v>329.5</v>
+      </c>
+      <c r="F1508" t="n" s="1">
+        <v>659.0</v>
+      </c>
+      <c r="G1508" t="n" s="1">
+        <v>759.0</v>
+      </c>
+      <c r="H1508" t="n" s="1">
+        <v>1119.75</v>
+      </c>
+      <c r="I1508" t="n" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="J1508" t="n" s="1">
+        <v>931.25</v>
+      </c>
+      <c r="K1508" t="n" s="1">
+        <v>3971.75</v>
+      </c>
+      <c r="L1508" t="n" s="1">
+        <v>3757.0</v>
+      </c>
+      <c r="M1508" t="n" s="1">
+        <v>4058.0</v>
+      </c>
+      <c r="N1508" t="n" s="1">
+        <v>303.0</v>
+      </c>
+      <c r="O1508" t="n" s="1">
+        <v>327.25</v>
       </c>
     </row>
     <row r="1509">
@@ -70981,41 +70981,41 @@
       <c r="C1509" t="s">
         <v>83</v>
       </c>
-      <c r="D1509" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1509" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1509" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1509" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1509" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1509" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1509" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1509" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1509" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1509" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1509" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1509" t="s">
-        <v>135</v>
+      <c r="D1509" t="n" s="1">
+        <v>1253.0</v>
+      </c>
+      <c r="E1509" t="n" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="F1509" t="n" s="1">
+        <v>770.5</v>
+      </c>
+      <c r="G1509" t="n" s="1">
+        <v>784.25</v>
+      </c>
+      <c r="H1509" t="n" s="1">
+        <v>905.25</v>
+      </c>
+      <c r="I1509" t="n" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="J1509" t="n" s="1">
+        <v>930.5</v>
+      </c>
+      <c r="K1509" t="n" s="1">
+        <v>3976.75</v>
+      </c>
+      <c r="L1509" t="n" s="1">
+        <v>3757.75</v>
+      </c>
+      <c r="M1509" t="n" s="1">
+        <v>4062.0</v>
+      </c>
+      <c r="N1509" t="n" s="1">
+        <v>431.5</v>
+      </c>
+      <c r="O1509" t="n" s="1">
+        <v>326.25</v>
       </c>
     </row>
     <row r="1510">
@@ -71028,41 +71028,41 @@
       <c r="C1510" t="s">
         <v>84</v>
       </c>
-      <c r="D1510" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1510" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1510" t="s">
-        <v>135</v>
-      </c>
-      <c r="G1510" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1510" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1510" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1510" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1510" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1510" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1510" t="s">
-        <v>135</v>
-      </c>
-      <c r="N1510" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1510" t="s">
-        <v>135</v>
+      <c r="D1510" t="n" s="1">
+        <v>1245.5</v>
+      </c>
+      <c r="E1510" t="n" s="1">
+        <v>313.0</v>
+      </c>
+      <c r="F1510" t="n" s="1">
+        <v>873.25</v>
+      </c>
+      <c r="G1510" t="n" s="1">
+        <v>781.0</v>
+      </c>
+      <c r="H1510" t="n" s="1">
+        <v>706.5</v>
+      </c>
+      <c r="I1510" t="n" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="J1510" t="n" s="1">
+        <v>930.5</v>
+      </c>
+      <c r="K1510" t="n" s="1">
+        <v>3974.25</v>
+      </c>
+      <c r="L1510" t="n" s="1">
+        <v>3760.75</v>
+      </c>
+      <c r="M1510" t="n" s="1">
+        <v>4062.5</v>
+      </c>
+      <c r="N1510" t="n" s="1">
+        <v>514.0</v>
+      </c>
+      <c r="O1510" t="n" s="1">
+        <v>327.25</v>
       </c>
     </row>
     <row r="1511">
@@ -71081,8 +71081,8 @@
       <c r="E1511" t="s">
         <v>135</v>
       </c>
-      <c r="F1511" t="s">
-        <v>135</v>
+      <c r="F1511" t="n" s="1">
+        <v>949.25</v>
       </c>
       <c r="G1511" t="s">
         <v>135</v>
@@ -71090,23 +71090,23 @@
       <c r="H1511" t="s">
         <v>135</v>
       </c>
-      <c r="I1511" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1511" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1511" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1511" t="s">
-        <v>135</v>
+      <c r="I1511" t="n" s="1">
+        <v>46.75</v>
+      </c>
+      <c r="J1511" t="n" s="1">
+        <v>930.25</v>
+      </c>
+      <c r="K1511" t="n" s="1">
+        <v>3980.5</v>
+      </c>
+      <c r="L1511" t="n" s="1">
+        <v>3729.75</v>
       </c>
       <c r="M1511" t="s">
         <v>135</v>
       </c>
-      <c r="N1511" t="s">
-        <v>135</v>
+      <c r="N1511" t="n" s="1">
+        <v>616.75</v>
       </c>
       <c r="O1511" t="s">
         <v>135</v>
@@ -71128,8 +71128,8 @@
       <c r="E1512" t="s">
         <v>135</v>
       </c>
-      <c r="F1512" t="s">
-        <v>135</v>
+      <c r="F1512" t="n" s="1">
+        <v>995.5</v>
       </c>
       <c r="G1512" t="s">
         <v>135</v>
